--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_squar5_261.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_squar5_261.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N920"/>
+  <dimension ref="A1:N921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6942319869995117</v>
+        <v>1.635464906692505</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008929252624511719</v>
+        <v>0.04648709297180176</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07311201095581055</v>
+        <v>0.1530559062957764</v>
       </c>
     </row>
     <row r="8">
@@ -6934,7 +6934,7 @@
         </is>
       </c>
       <c r="B914" t="n">
-        <v>0.01250533945806745</v>
+        <v>0.01250447245125495</v>
       </c>
     </row>
     <row r="915">
@@ -6944,116 +6944,126 @@
         </is>
       </c>
       <c r="B915" t="n">
-        <v>38551.08686089254</v>
+        <v>38655.08686089254</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B916" t="n">
-        <v>31</v>
+        <v>0.9981263990850716</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B917" t="n">
-        <v>829</v>
+        <v>31</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B918" t="n">
-        <v>6</v>
+        <v>869</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B919" t="n">
-        <v>0.8182978630065918</v>
+        <v>6</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B920" t="n">
+        <v>1.91086483001709</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B920" t="inlineStr">
+      <c r="B921" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C920" t="inlineStr">
+      <c r="C921" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D920" t="inlineStr">
+      <c r="D921" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E920" t="inlineStr">
+      <c r="E921" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F920" t="inlineStr">
+      <c r="F921" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G920" t="inlineStr">
+      <c r="G921" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H920" t="inlineStr">
+      <c r="H921" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I920" t="inlineStr">
+      <c r="I921" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J920" t="inlineStr">
+      <c r="J921" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K920" t="inlineStr">
+      <c r="K921" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L920" t="inlineStr">
+      <c r="L921" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M920" t="inlineStr">
+      <c r="M921" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N920" t="inlineStr">
+      <c r="N921" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_squar5_261.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_squar5_261.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.635464906692505</v>
+        <v>0.001517057418823242</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04648709297180176</v>
+        <v>0.001036167144775391</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1530559062957764</v>
+        <v>0.1478250026702881</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 2), (1, 0), (0, 1), (2, 2), (2, 3), (0, 2), (2, 0), (0, 0), (2, 1), (1, 2), (1, 1), (1, 3), (0, 3)]</t>
+          <t>[[3, 2], [1, 0], [0, 1], [2, 2], [2, 3], [0, 2], [2, 0], [0, 0], [2, 1], [1, 2], [1, 1], [1, 3], [0, 3]]</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>[(3, 2), (3, 0), (0, 2), (1, 0), (3, 1), (2, 3), (2, 2), (0, 1), (2, 0), (0, 0), (1, 1), (2, 1), (1, 2)]</t>
+          <t>[[3, 2], [3, 0], [0, 2], [1, 0], [3, 1], [2, 3], [2, 2], [0, 1], [2, 0], [0, 0], [1, 1], [2, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>[(3, 2), (3, 0), (0, 3), (0, 0), (1, 3), (2, 1), (2, 0), (2, 2), (0, 2), (1, 1), (1, 0), (0, 1), (1, 2)]</t>
+          <t>[[3, 2], [3, 0], [0, 3], [0, 0], [1, 3], [2, 1], [2, 0], [2, 2], [0, 2], [1, 1], [1, 0], [0, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -3603,7 +3603,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>[(3, 2), (3, 0), (1, 3), (0, 0), (2, 1), (1, 2), (0, 1), (0, 2), (0, 3), (1, 1), (1, 0), (2, 0), (2, 2)]</t>
+          <t>[[3, 2], [3, 0], [1, 3], [0, 0], [2, 1], [1, 2], [0, 1], [0, 2], [0, 3], [1, 1], [1, 0], [2, 0], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -5702,7 +5702,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>[(3, 2), (3, 1), (0, 3), (1, 3), (0, 2), (2, 0), (0, 0), (0, 1), (1, 2), (1, 1), (1, 0), (2, 1), (3, 0)]</t>
+          <t>[[3, 2], [3, 1], [0, 3], [1, 3], [0, 2], [2, 0], [0, 0], [0, 1], [1, 2], [1, 1], [1, 0], [2, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>[(3, 2), (3, 1), (1, 3), (1, 1), (2, 2), (2, 0), (2, 1), (0, 1), (1, 0), (1, 2), (0, 3), (0, 2), (0, 0)]</t>
+          <t>[[3, 2], [3, 1], [1, 3], [1, 1], [2, 2], [2, 0], [2, 1], [0, 1], [1, 0], [1, 2], [0, 3], [0, 2], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="B920" t="n">
-        <v>1.91086483001709</v>
+        <v>0.1918659210205078</v>
       </c>
     </row>
     <row r="921">
